--- a/legislator/property/output/normal/孫大千_2013-11-29_財產申報表_tmpdea21.xlsx
+++ b/legislator/property/output/normal/孫大千_2013-11-29_財產申報表_tmpdea21.xlsx
@@ -1786,7 +1786,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>68</v>
@@ -1825,12 +1825,12 @@
         <v>34</v>
       </c>
       <c r="N2" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>69</v>
@@ -1869,7 +1869,7 @@
         <v>34</v>
       </c>
       <c r="N3" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1922,7 +1922,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>72</v>
@@ -1955,12 +1955,12 @@
         <v>34</v>
       </c>
       <c r="L2" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>73</v>
@@ -1993,12 +1993,12 @@
         <v>34</v>
       </c>
       <c r="L3" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>74</v>
@@ -2031,12 +2031,12 @@
         <v>34</v>
       </c>
       <c r="L4" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>72</v>
@@ -2069,12 +2069,12 @@
         <v>34</v>
       </c>
       <c r="L5" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>74</v>
@@ -2107,7 +2107,7 @@
         <v>34</v>
       </c>
       <c r="L6" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2157,7 +2157,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>78</v>
@@ -2187,12 +2187,12 @@
         <v>34</v>
       </c>
       <c r="K2" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>78</v>
@@ -2222,12 +2222,12 @@
         <v>34</v>
       </c>
       <c r="K3" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>78</v>
@@ -2257,12 +2257,12 @@
         <v>34</v>
       </c>
       <c r="K4" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>78</v>
@@ -2292,12 +2292,12 @@
         <v>34</v>
       </c>
       <c r="K5" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>79</v>
@@ -2327,12 +2327,12 @@
         <v>34</v>
       </c>
       <c r="K6" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>79</v>
@@ -2362,12 +2362,12 @@
         <v>34</v>
       </c>
       <c r="K7" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>79</v>
@@ -2397,12 +2397,12 @@
         <v>34</v>
       </c>
       <c r="K8" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>78</v>
@@ -2432,7 +2432,7 @@
         <v>34</v>
       </c>
       <c r="K9" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
